--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220426_110231.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220426_110231.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="267">
   <si>
     <t>사이트</t>
   </si>
@@ -797,6 +797,9 @@
   </si>
   <si>
     <t>FNC</t>
+  </si>
+  <si>
+    <t>마크툽컴퍼니</t>
   </si>
   <si>
     <t>예스아이엠엔터테인먼트</t>
@@ -2936,6 +2939,12 @@
       <c r="F68" t="s">
         <v>210</v>
       </c>
+      <c r="G68" t="s">
+        <v>261</v>
+      </c>
+      <c r="H68" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
@@ -3035,7 +3044,7 @@
         <v>213</v>
       </c>
       <c r="G72" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H72" t="s">
         <v>241</v>
@@ -3268,6 +3277,12 @@
       <c r="F81" t="s">
         <v>89</v>
       </c>
+      <c r="G81" t="s">
+        <v>243</v>
+      </c>
+      <c r="H81" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
@@ -3314,6 +3329,12 @@
       <c r="F83" t="s">
         <v>220</v>
       </c>
+      <c r="G83" t="s">
+        <v>261</v>
+      </c>
+      <c r="H83" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
@@ -3335,7 +3356,7 @@
         <v>221</v>
       </c>
       <c r="G84" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H84" t="s">
         <v>241</v>
@@ -3491,7 +3512,7 @@
         <v>98</v>
       </c>
       <c r="G90" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H90" t="s">
         <v>241</v>
@@ -3517,7 +3538,7 @@
         <v>99</v>
       </c>
       <c r="G91" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H91" t="s">
         <v>241</v>
@@ -3543,7 +3564,7 @@
         <v>100</v>
       </c>
       <c r="G92" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H92" t="s">
         <v>241</v>
@@ -3699,7 +3720,7 @@
         <v>227</v>
       </c>
       <c r="G98" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H98" t="s">
         <v>241</v>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220426_110231.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220426_110231.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>genie</t>
+    <t>Genie</t>
   </si>
   <si>
     <t>2022-04-26</t>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220426_110231.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220426_110231.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="266">
   <si>
     <t>사이트</t>
   </si>
@@ -770,9 +770,6 @@
   </si>
   <si>
     <t>레시피뮤직</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>HIGH UP</t>
@@ -2264,7 +2261,7 @@
         <v>50</v>
       </c>
       <c r="G42" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="H42" t="s">
         <v>241</v>
@@ -2316,7 +2313,7 @@
         <v>194</v>
       </c>
       <c r="G44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H44" t="s">
         <v>241</v>
@@ -2342,7 +2339,7 @@
         <v>195</v>
       </c>
       <c r="G45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H45" t="s">
         <v>241</v>
@@ -2420,7 +2417,7 @@
         <v>196</v>
       </c>
       <c r="G48" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="H48" t="s">
         <v>241</v>
@@ -2446,10 +2443,10 @@
         <v>197</v>
       </c>
       <c r="G49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2498,7 +2495,7 @@
         <v>199</v>
       </c>
       <c r="G51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H51" t="s">
         <v>241</v>
@@ -2524,7 +2521,7 @@
         <v>200</v>
       </c>
       <c r="G52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H52" t="s">
         <v>241</v>
@@ -2550,10 +2547,10 @@
         <v>61</v>
       </c>
       <c r="G53" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H53" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2654,7 +2651,7 @@
         <v>65</v>
       </c>
       <c r="G57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H57" t="s">
         <v>241</v>
@@ -2758,7 +2755,7 @@
         <v>69</v>
       </c>
       <c r="G61" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H61" t="s">
         <v>241</v>
@@ -2836,7 +2833,7 @@
         <v>207</v>
       </c>
       <c r="G64" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="H64" t="s">
         <v>241</v>
@@ -2862,7 +2859,7 @@
         <v>73</v>
       </c>
       <c r="G65" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H65" t="s">
         <v>241</v>
@@ -2940,7 +2937,7 @@
         <v>210</v>
       </c>
       <c r="G68" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H68" t="s">
         <v>241</v>
@@ -2992,10 +2989,10 @@
         <v>212</v>
       </c>
       <c r="G70" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H70" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3044,7 +3041,7 @@
         <v>213</v>
       </c>
       <c r="G72" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H72" t="s">
         <v>241</v>
@@ -3148,7 +3145,7 @@
         <v>216</v>
       </c>
       <c r="G76" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="H76" t="s">
         <v>241</v>
@@ -3174,7 +3171,7 @@
         <v>85</v>
       </c>
       <c r="G77" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H77" t="s">
         <v>241</v>
@@ -3252,7 +3249,7 @@
         <v>192</v>
       </c>
       <c r="G80" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="H80" t="s">
         <v>241</v>
@@ -3330,7 +3327,7 @@
         <v>220</v>
       </c>
       <c r="G83" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H83" t="s">
         <v>241</v>
@@ -3356,7 +3353,7 @@
         <v>221</v>
       </c>
       <c r="G84" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H84" t="s">
         <v>241</v>
@@ -3382,7 +3379,7 @@
         <v>222</v>
       </c>
       <c r="G85" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H85" t="s">
         <v>241</v>
@@ -3512,7 +3509,7 @@
         <v>98</v>
       </c>
       <c r="G90" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H90" t="s">
         <v>241</v>
@@ -3538,7 +3535,7 @@
         <v>99</v>
       </c>
       <c r="G91" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H91" t="s">
         <v>241</v>
@@ -3564,7 +3561,7 @@
         <v>100</v>
       </c>
       <c r="G92" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H92" t="s">
         <v>241</v>
@@ -3642,7 +3639,7 @@
         <v>226</v>
       </c>
       <c r="G95" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H95" t="s">
         <v>241</v>
@@ -3720,7 +3717,7 @@
         <v>227</v>
       </c>
       <c r="G98" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H98" t="s">
         <v>241</v>
